--- a/data/LogCrawler_201-010_20250521.xlsx
+++ b/data/LogCrawler_201-010_20250521.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -504,135 +504,6 @@
   </si>
   <si>
     <t xml:space="preserve">2025/05/22 03:34:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 03:35:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 03:35:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 03:35:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 03:35:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 03:36:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 03:38:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 03:38:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 03:39:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 03:41:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 03:43:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 03:43:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 03:44:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 03:51:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 03:53:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 03:57:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 03:58:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 03:59:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 03:59:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:15:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 04:24:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 04:24:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 04:25:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 04:26:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 04:26:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 04:26:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 04:28:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 04:28:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 04:29:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 04:31:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 04:34:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:05:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 05:44:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LogTestStimStart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 05:45:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:16:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 05:45:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 05:45:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:17:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 05:46:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/05/22 05:46:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:17:52</t>
   </si>
 </sst>
 </file>
@@ -4062,879 +3933,6 @@
         <v>130</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>164</v>
-      </c>
-      <c r="B126" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126"/>
-      <c r="D126" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1</v>
-      </c>
-      <c r="F126" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G126" t="n">
-        <v>30</v>
-      </c>
-      <c r="H126" t="n">
-        <v>305</v>
-      </c>
-      <c r="I126" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>165</v>
-      </c>
-      <c r="B127" t="s">
-        <v>21</v>
-      </c>
-      <c r="C127"/>
-      <c r="D127" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E127" t="n">
-        <v>1</v>
-      </c>
-      <c r="F127" t="n">
-        <v>20</v>
-      </c>
-      <c r="G127" t="n">
-        <v>30</v>
-      </c>
-      <c r="H127" t="n">
-        <v>305</v>
-      </c>
-      <c r="I127" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>166</v>
-      </c>
-      <c r="B128" t="s">
-        <v>21</v>
-      </c>
-      <c r="C128"/>
-      <c r="D128" s="1" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1</v>
-      </c>
-      <c r="F128" t="n">
-        <v>20</v>
-      </c>
-      <c r="G128" t="n">
-        <v>30</v>
-      </c>
-      <c r="H128" t="n">
-        <v>305</v>
-      </c>
-      <c r="I128" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>167</v>
-      </c>
-      <c r="B129" t="s">
-        <v>21</v>
-      </c>
-      <c r="C129"/>
-      <c r="D129" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1</v>
-      </c>
-      <c r="F129" t="n">
-        <v>20</v>
-      </c>
-      <c r="G129" t="n">
-        <v>30</v>
-      </c>
-      <c r="H129" t="n">
-        <v>305</v>
-      </c>
-      <c r="I129" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>170</v>
-      </c>
-      <c r="B131" t="s">
-        <v>21</v>
-      </c>
-      <c r="C131"/>
-      <c r="D131" s="1" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E131" t="n">
-        <v>1</v>
-      </c>
-      <c r="F131" t="n">
-        <v>20</v>
-      </c>
-      <c r="G131" t="n">
-        <v>30</v>
-      </c>
-      <c r="H131" t="n">
-        <v>305</v>
-      </c>
-      <c r="I131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E132" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F132" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="G132" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H132" s="2" t="n">
-        <v>305</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>172</v>
-      </c>
-      <c r="B133" t="s">
-        <v>21</v>
-      </c>
-      <c r="C133"/>
-      <c r="D133" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E133" t="n">
-        <v>1</v>
-      </c>
-      <c r="F133" t="n">
-        <v>20</v>
-      </c>
-      <c r="G133" t="n">
-        <v>30</v>
-      </c>
-      <c r="H133" t="n">
-        <v>305</v>
-      </c>
-      <c r="I133" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>175</v>
-      </c>
-      <c r="B135" t="s">
-        <v>21</v>
-      </c>
-      <c r="C135"/>
-      <c r="D135" s="1" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E135" t="n">
-        <v>1</v>
-      </c>
-      <c r="F135" t="n">
-        <v>20</v>
-      </c>
-      <c r="G135" t="n">
-        <v>30</v>
-      </c>
-      <c r="H135" t="n">
-        <v>305</v>
-      </c>
-      <c r="I135" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136" s="2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E136" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F136" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="G136" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H136" s="2" t="n">
-        <v>305</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>177</v>
-      </c>
-      <c r="B137" t="s">
-        <v>21</v>
-      </c>
-      <c r="C137"/>
-      <c r="D137" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1</v>
-      </c>
-      <c r="F137" t="n">
-        <v>20</v>
-      </c>
-      <c r="G137" t="n">
-        <v>30</v>
-      </c>
-      <c r="H137" t="n">
-        <v>305</v>
-      </c>
-      <c r="I137" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>178</v>
-      </c>
-      <c r="B138" t="s">
-        <v>10</v>
-      </c>
-      <c r="C138"/>
-      <c r="D138" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1</v>
-      </c>
-      <c r="F138" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="G138" t="n">
-        <v>30</v>
-      </c>
-      <c r="H138" t="n">
-        <v>305</v>
-      </c>
-      <c r="I138" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>179</v>
-      </c>
-      <c r="B139" t="s">
-        <v>10</v>
-      </c>
-      <c r="C139"/>
-      <c r="D139" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1</v>
-      </c>
-      <c r="F139" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="G139" t="n">
-        <v>30</v>
-      </c>
-      <c r="H139" t="n">
-        <v>305</v>
-      </c>
-      <c r="I139" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>180</v>
-      </c>
-      <c r="B140" t="s">
-        <v>10</v>
-      </c>
-      <c r="C140"/>
-      <c r="D140" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1</v>
-      </c>
-      <c r="F140" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="G140" t="n">
-        <v>30</v>
-      </c>
-      <c r="H140" t="n">
-        <v>305</v>
-      </c>
-      <c r="I140" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>181</v>
-      </c>
-      <c r="B141" t="s">
-        <v>21</v>
-      </c>
-      <c r="C141"/>
-      <c r="D141" s="1" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1</v>
-      </c>
-      <c r="F141" t="n">
-        <v>21</v>
-      </c>
-      <c r="G141" t="n">
-        <v>30</v>
-      </c>
-      <c r="H141" t="n">
-        <v>305</v>
-      </c>
-      <c r="I141" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>182</v>
-      </c>
-      <c r="B142" t="s">
-        <v>21</v>
-      </c>
-      <c r="C142"/>
-      <c r="D142" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1</v>
-      </c>
-      <c r="F142" t="n">
-        <v>21</v>
-      </c>
-      <c r="G142" t="n">
-        <v>30</v>
-      </c>
-      <c r="H142" t="n">
-        <v>305</v>
-      </c>
-      <c r="I142" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>185</v>
-      </c>
-      <c r="B144" t="s">
-        <v>21</v>
-      </c>
-      <c r="C144"/>
-      <c r="D144" s="1" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1</v>
-      </c>
-      <c r="F144" t="n">
-        <v>21</v>
-      </c>
-      <c r="G144" t="n">
-        <v>30</v>
-      </c>
-      <c r="H144" t="n">
-        <v>305</v>
-      </c>
-      <c r="I144" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D145" s="2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E145" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F145" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="G145" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H145" s="2" t="n">
-        <v>305</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>187</v>
-      </c>
-      <c r="B146" t="s">
-        <v>21</v>
-      </c>
-      <c r="C146"/>
-      <c r="D146" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1</v>
-      </c>
-      <c r="F146" t="n">
-        <v>21</v>
-      </c>
-      <c r="G146" t="n">
-        <v>30</v>
-      </c>
-      <c r="H146" t="n">
-        <v>305</v>
-      </c>
-      <c r="I146" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>189</v>
-      </c>
-      <c r="B148" t="s">
-        <v>21</v>
-      </c>
-      <c r="C148"/>
-      <c r="D148" s="1" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1</v>
-      </c>
-      <c r="F148" t="n">
-        <v>21</v>
-      </c>
-      <c r="G148" t="n">
-        <v>30</v>
-      </c>
-      <c r="H148" t="n">
-        <v>305</v>
-      </c>
-      <c r="I148" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>190</v>
-      </c>
-      <c r="B149" t="s">
-        <v>21</v>
-      </c>
-      <c r="C149"/>
-      <c r="D149" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1</v>
-      </c>
-      <c r="F149" t="n">
-        <v>21</v>
-      </c>
-      <c r="G149" t="n">
-        <v>30</v>
-      </c>
-      <c r="H149" t="n">
-        <v>305</v>
-      </c>
-      <c r="I149" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>191</v>
-      </c>
-      <c r="B150" t="s">
-        <v>21</v>
-      </c>
-      <c r="C150"/>
-      <c r="D150" s="1" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1</v>
-      </c>
-      <c r="F150" t="n">
-        <v>21</v>
-      </c>
-      <c r="G150" t="n">
-        <v>30</v>
-      </c>
-      <c r="H150" t="n">
-        <v>305</v>
-      </c>
-      <c r="I150" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151" s="2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E151" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F151" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="G151" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H151" s="2" t="n">
-        <v>305</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>193</v>
-      </c>
-      <c r="B152" t="s">
-        <v>21</v>
-      </c>
-      <c r="C152"/>
-      <c r="D152" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E152" t="n">
-        <v>1</v>
-      </c>
-      <c r="F152" t="n">
-        <v>21</v>
-      </c>
-      <c r="G152" t="n">
-        <v>30</v>
-      </c>
-      <c r="H152" t="n">
-        <v>305</v>
-      </c>
-      <c r="I152" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>194</v>
-      </c>
-      <c r="B153" t="s">
-        <v>21</v>
-      </c>
-      <c r="C153"/>
-      <c r="D153" s="1" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E153" t="n">
-        <v>1</v>
-      </c>
-      <c r="F153" t="n">
-        <v>21</v>
-      </c>
-      <c r="G153" t="n">
-        <v>30</v>
-      </c>
-      <c r="H153" t="n">
-        <v>305</v>
-      </c>
-      <c r="I153" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>197</v>
-      </c>
-      <c r="B155" t="s">
-        <v>198</v>
-      </c>
-      <c r="C155"/>
-      <c r="D155" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E155" t="n">
-        <v>1</v>
-      </c>
-      <c r="F155" t="n">
-        <v>21</v>
-      </c>
-      <c r="G155" t="n">
-        <v>30</v>
-      </c>
-      <c r="H155" t="n">
-        <v>305</v>
-      </c>
-      <c r="I155" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>201</v>
-      </c>
-      <c r="B157" t="s">
-        <v>198</v>
-      </c>
-      <c r="C157"/>
-      <c r="D157" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1</v>
-      </c>
-      <c r="F157" t="n">
-        <v>21</v>
-      </c>
-      <c r="G157" t="n">
-        <v>30</v>
-      </c>
-      <c r="H157" t="n">
-        <v>305</v>
-      </c>
-      <c r="I157" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>204</v>
-      </c>
-      <c r="B159" t="s">
-        <v>198</v>
-      </c>
-      <c r="C159"/>
-      <c r="D159" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1</v>
-      </c>
-      <c r="F159" t="n">
-        <v>21</v>
-      </c>
-      <c r="G159" t="n">
-        <v>30</v>
-      </c>
-      <c r="H159" t="n">
-        <v>305</v>
-      </c>
-      <c r="I159" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="landscape" scale="100" fitToWidth="1" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
